--- a/SchedulingData/dynamic11/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,135 +462,135 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>273.88</v>
+        <v>227.04</v>
       </c>
       <c r="D2" t="n">
-        <v>324.84</v>
+        <v>271.84</v>
       </c>
       <c r="E2" t="n">
-        <v>8.816000000000001</v>
+        <v>13.996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>253.56</v>
+        <v>234.8</v>
       </c>
       <c r="D3" t="n">
-        <v>309.06</v>
+        <v>295.5</v>
       </c>
       <c r="E3" t="n">
-        <v>10.724</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>324.84</v>
+        <v>216.18</v>
       </c>
       <c r="D4" t="n">
-        <v>381.24</v>
+        <v>278.36</v>
       </c>
       <c r="E4" t="n">
-        <v>4.796</v>
+        <v>10.344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>238.36</v>
+        <v>295.5</v>
       </c>
       <c r="D5" t="n">
-        <v>317.24</v>
+        <v>362.3</v>
       </c>
       <c r="E5" t="n">
-        <v>11.896</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>236.98</v>
+        <v>278.36</v>
       </c>
       <c r="D6" t="n">
-        <v>294.58</v>
+        <v>332.22</v>
       </c>
       <c r="E6" t="n">
-        <v>14.692</v>
+        <v>7.588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>294.58</v>
+        <v>218.54</v>
       </c>
       <c r="D7" t="n">
-        <v>368.36</v>
+        <v>270.04</v>
       </c>
       <c r="E7" t="n">
-        <v>11.884</v>
+        <v>10.676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>368.36</v>
+        <v>270.04</v>
       </c>
       <c r="D8" t="n">
-        <v>421.7</v>
+        <v>330.44</v>
       </c>
       <c r="E8" t="n">
-        <v>9.640000000000001</v>
+        <v>8.256</v>
       </c>
     </row>
     <row r="9">
@@ -599,150 +599,150 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>230.78</v>
+        <v>330.44</v>
       </c>
       <c r="D9" t="n">
-        <v>283.16</v>
+        <v>373.14</v>
       </c>
       <c r="E9" t="n">
-        <v>13.664</v>
+        <v>6.096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>317.24</v>
+        <v>271.84</v>
       </c>
       <c r="D10" t="n">
-        <v>369.16</v>
+        <v>325.54</v>
       </c>
       <c r="E10" t="n">
-        <v>9.304</v>
+        <v>10.756</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>369.16</v>
+        <v>260.08</v>
       </c>
       <c r="D11" t="n">
-        <v>443.04</v>
+        <v>292.88</v>
       </c>
       <c r="E11" t="n">
-        <v>7.016</v>
+        <v>11.872</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>421.7</v>
+        <v>241.14</v>
       </c>
       <c r="D12" t="n">
-        <v>466.66</v>
+        <v>300.64</v>
       </c>
       <c r="E12" t="n">
-        <v>7.264</v>
+        <v>12.076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>283.16</v>
+        <v>332.22</v>
       </c>
       <c r="D13" t="n">
-        <v>337.76</v>
+        <v>384.14</v>
       </c>
       <c r="E13" t="n">
-        <v>10.804</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>381.24</v>
+        <v>373.14</v>
       </c>
       <c r="D14" t="n">
-        <v>434.84</v>
+        <v>427.1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.556</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>434.84</v>
+        <v>300.64</v>
       </c>
       <c r="D15" t="n">
-        <v>498.73</v>
+        <v>358</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>498.73</v>
+        <v>358</v>
       </c>
       <c r="D16" t="n">
-        <v>558.33</v>
+        <v>427.18</v>
       </c>
       <c r="E16" t="n">
-        <v>26.7</v>
+        <v>6.132</v>
       </c>
     </row>
     <row r="17">
@@ -751,93 +751,93 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>466.66</v>
+        <v>325.54</v>
       </c>
       <c r="D17" t="n">
-        <v>510.62</v>
+        <v>418.44</v>
       </c>
       <c r="E17" t="n">
-        <v>4.508</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>309.06</v>
+        <v>292.88</v>
       </c>
       <c r="D18" t="n">
-        <v>371.76</v>
+        <v>347.74</v>
       </c>
       <c r="E18" t="n">
-        <v>8.084</v>
+        <v>9.496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>254.82</v>
+        <v>427.18</v>
       </c>
       <c r="D19" t="n">
-        <v>297.48</v>
+        <v>485.82</v>
       </c>
       <c r="E19" t="n">
-        <v>10.932</v>
+        <v>3.888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>297.48</v>
+        <v>418.44</v>
       </c>
       <c r="D20" t="n">
-        <v>337.54</v>
+        <v>490.04</v>
       </c>
       <c r="E20" t="n">
-        <v>8.555999999999999</v>
+        <v>3.956</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>558.33</v>
+        <v>485.82</v>
       </c>
       <c r="D21" t="n">
-        <v>612.71</v>
+        <v>525.88</v>
       </c>
       <c r="E21" t="n">
-        <v>23.892</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="22">
@@ -846,17 +846,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>371.76</v>
+        <v>525.88</v>
       </c>
       <c r="D22" t="n">
-        <v>411.76</v>
+        <v>619.46</v>
       </c>
       <c r="E22" t="n">
-        <v>5.224</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -865,79 +865,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>337.54</v>
+        <v>362.3</v>
       </c>
       <c r="D23" t="n">
-        <v>376.5</v>
+        <v>430.44</v>
       </c>
       <c r="E23" t="n">
-        <v>5.8</v>
+        <v>5.376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>337.76</v>
+        <v>384.14</v>
       </c>
       <c r="D24" t="n">
-        <v>379.88</v>
+        <v>443.24</v>
       </c>
       <c r="E24" t="n">
-        <v>8.212</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>379.88</v>
+        <v>443.24</v>
       </c>
       <c r="D25" t="n">
-        <v>441.78</v>
+        <v>526.45</v>
       </c>
       <c r="E25" t="n">
-        <v>6.132</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>510.62</v>
+        <v>427.1</v>
       </c>
       <c r="D26" t="n">
-        <v>572.52</v>
+        <v>477</v>
       </c>
       <c r="E26" t="n">
-        <v>1.428</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>572.52</v>
+        <v>477</v>
       </c>
       <c r="D27" t="n">
-        <v>666.0599999999999</v>
+        <v>572.4400000000001</v>
       </c>
       <c r="E27" t="n">
         <v>30</v>
@@ -956,21 +956,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>411.76</v>
+        <v>430.44</v>
       </c>
       <c r="D28" t="n">
-        <v>461.72</v>
+        <v>484.24</v>
       </c>
       <c r="E28" t="n">
-        <v>2.848</v>
+        <v>2.136</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>612.71</v>
+        <v>347.74</v>
       </c>
       <c r="D29" t="n">
-        <v>648.21</v>
+        <v>384.96</v>
       </c>
       <c r="E29" t="n">
-        <v>21.472</v>
+        <v>6.904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>376.5</v>
+        <v>572.4400000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>408.82</v>
+        <v>631.74</v>
       </c>
       <c r="E30" t="n">
-        <v>3.208</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>443.04</v>
+        <v>484.24</v>
       </c>
       <c r="D31" t="n">
-        <v>509.68</v>
+        <v>546.97</v>
       </c>
       <c r="E31" t="n">
-        <v>4.472</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1036,155 +1036,155 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>408.82</v>
+        <v>546.97</v>
       </c>
       <c r="D32" t="n">
-        <v>478</v>
+        <v>599.6900000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>478</v>
+        <v>490.04</v>
       </c>
       <c r="D33" t="n">
-        <v>568.8</v>
+        <v>525.1</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>441.78</v>
+        <v>525.1</v>
       </c>
       <c r="D34" t="n">
-        <v>505.58</v>
+        <v>623.24</v>
       </c>
       <c r="E34" t="n">
-        <v>2.892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509.68</v>
+        <v>384.96</v>
       </c>
       <c r="D35" t="n">
-        <v>551.98</v>
+        <v>419.44</v>
       </c>
       <c r="E35" t="n">
-        <v>2.352</v>
+        <v>4.096</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>568.8</v>
+        <v>631.74</v>
       </c>
       <c r="D36" t="n">
-        <v>621.5</v>
+        <v>681.12</v>
       </c>
       <c r="E36" t="n">
-        <v>26.92</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>648.21</v>
+        <v>526.45</v>
       </c>
       <c r="D37" t="n">
-        <v>690.91</v>
+        <v>559.15</v>
       </c>
       <c r="E37" t="n">
-        <v>19.312</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>461.72</v>
+        <v>599.6900000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>513.62</v>
+        <v>641.33</v>
       </c>
       <c r="E38" t="n">
-        <v>0.768</v>
+        <v>24.864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>513.62</v>
+        <v>419.44</v>
       </c>
       <c r="D39" t="n">
-        <v>583.98</v>
+        <v>462.14</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>1.936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>505.58</v>
+        <v>462.14</v>
       </c>
       <c r="D40" t="n">
-        <v>611.1</v>
+        <v>564.5700000000001</v>
       </c>
       <c r="E40" t="n">
         <v>30</v>
@@ -1203,21 +1203,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>611.1</v>
+        <v>619.46</v>
       </c>
       <c r="D41" t="n">
-        <v>665.4</v>
+        <v>691.5599999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>26.76</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="42">
@@ -1226,17 +1226,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>621.5</v>
+        <v>641.33</v>
       </c>
       <c r="D42" t="n">
-        <v>676.4</v>
+        <v>683.63</v>
       </c>
       <c r="E42" t="n">
-        <v>24.06</v>
+        <v>22.744</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>pond2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>559.15</v>
+      </c>
+      <c r="D43" t="n">
+        <v>627.9299999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>25.632</v>
       </c>
     </row>
   </sheetData>
